--- a/biology/Botanique/Sépale_pétaloïde/Sépale_pétaloïde.xlsx
+++ b/biology/Botanique/Sépale_pétaloïde/Sépale_pétaloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9pale_p%C3%A9talo%C3%AFde</t>
+          <t>Sépale_pétaloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sépale pétaloïde est un sépale ayant l’aspect d’un pétale.
 Par exemple, les sépales de la Tulipe sont pétaloïdes. On regroupe dans ce cas les pétales et les sépales sous le terme de tépales. 
